--- a/src/test/java/commonFunctions/files/Veggies.xlsx
+++ b/src/test/java/commonFunctions/files/Veggies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akila\IdeaProjects\DataDrivenFrameWork\src\test\java\commonFunctions\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CC985F5-5126-4C6F-A823-4FA81124982D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93E3224-6313-4307-943B-9BBADC7FE96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{AC11B31C-32A6-4C86-AA70-B073B86C1CF5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Veggies</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>Apple</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>India</t>
   </si>
 </sst>
 </file>
@@ -400,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5571B885-55F9-4530-B629-91043B1FE810}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -412,23 +418,29 @@
     <col min="2" max="2" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>7</v>
       </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -436,7 +448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
